--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pecam1-Cd38.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="H2">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="I2">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="J2">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.027697</v>
+        <v>32.30926933333333</v>
       </c>
       <c r="N2">
-        <v>138.083091</v>
+        <v>96.927808</v>
       </c>
       <c r="O2">
-        <v>0.5508655786307046</v>
+        <v>0.4126751607889972</v>
       </c>
       <c r="P2">
-        <v>0.5524593235722315</v>
+        <v>0.4140835826598944</v>
       </c>
       <c r="Q2">
-        <v>15120.38780994591</v>
+        <v>9491.096831126391</v>
       </c>
       <c r="R2">
-        <v>136083.4902895132</v>
+        <v>85419.87148013753</v>
       </c>
       <c r="S2">
-        <v>0.5225083131215063</v>
+        <v>0.3866665609523599</v>
       </c>
       <c r="T2">
-        <v>0.5256138067783407</v>
+        <v>0.3895120642861375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="H3">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="I3">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="J3">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.838519</v>
       </c>
       <c r="O3">
-        <v>0.03127081146049064</v>
+        <v>0.03337290046497914</v>
       </c>
       <c r="P3">
-        <v>0.03136128307374061</v>
+        <v>0.03348679906459509</v>
       </c>
       <c r="Q3">
-        <v>858.3342556810911</v>
+        <v>767.541785754858</v>
       </c>
       <c r="R3">
-        <v>7725.008301129821</v>
+        <v>6907.876071793722</v>
       </c>
       <c r="S3">
-        <v>0.02966106356976667</v>
+        <v>0.03126959380624527</v>
       </c>
       <c r="T3">
-        <v>0.02983735214251795</v>
+        <v>0.03149970869697281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="H4">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="I4">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="J4">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.68554033333333</v>
+        <v>12.89411533333333</v>
       </c>
       <c r="N4">
-        <v>47.05662099999999</v>
+        <v>38.682346</v>
       </c>
       <c r="O4">
-        <v>0.1877266258152547</v>
+        <v>0.1646920907903501</v>
       </c>
       <c r="P4">
-        <v>0.1882697498946838</v>
+        <v>0.1652541695502867</v>
       </c>
       <c r="Q4">
-        <v>5152.798604035048</v>
+        <v>3787.745736921386</v>
       </c>
       <c r="R4">
-        <v>46375.18743631543</v>
+        <v>34089.71163229248</v>
       </c>
       <c r="S4">
-        <v>0.1780629002569767</v>
+        <v>0.1543124724061569</v>
       </c>
       <c r="T4">
-        <v>0.179121205346827</v>
+        <v>0.1554480675132013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="H5">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="I5">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="J5">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.723125</v>
+        <v>0.798886</v>
       </c>
       <c r="N5">
-        <v>1.44625</v>
+        <v>1.597772</v>
       </c>
       <c r="O5">
-        <v>0.008654455849644799</v>
+        <v>0.01020389551681842</v>
       </c>
       <c r="P5">
-        <v>0.005786329744866009</v>
+        <v>0.006825813640948785</v>
       </c>
       <c r="Q5">
-        <v>237.5511083047917</v>
+        <v>234.6789184492206</v>
       </c>
       <c r="R5">
-        <v>1425.30664982875</v>
+        <v>1408.073510695324</v>
       </c>
       <c r="S5">
-        <v>0.008208944799605969</v>
+        <v>0.009560801237132703</v>
       </c>
       <c r="T5">
-        <v>0.005505156080646944</v>
+        <v>0.006420773179752403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>328.5062863333333</v>
+        <v>293.7577056666667</v>
       </c>
       <c r="H6">
-        <v>985.518859</v>
+        <v>881.273117</v>
       </c>
       <c r="I6">
-        <v>0.9485223498994318</v>
+        <v>0.9369756110667984</v>
       </c>
       <c r="J6">
-        <v>0.9514072518130271</v>
+        <v>0.940660486426629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.50602233333333</v>
+        <v>29.67714566666667</v>
       </c>
       <c r="N6">
-        <v>55.518067</v>
+        <v>89.03143700000001</v>
       </c>
       <c r="O6">
-        <v>0.2214825282439052</v>
+        <v>0.3790559524388551</v>
       </c>
       <c r="P6">
-        <v>0.2221233137144781</v>
+        <v>0.3803496350842752</v>
       </c>
       <c r="Q6">
-        <v>6079.344671525061</v>
+        <v>8717.89022177546</v>
       </c>
       <c r="R6">
-        <v>54714.10204372556</v>
+        <v>78461.01199597913</v>
       </c>
       <c r="S6">
-        <v>0.2100811281515763</v>
+        <v>0.3551661826649035</v>
       </c>
       <c r="T6">
-        <v>0.2113297314646945</v>
+        <v>0.3577798727505651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.344899</v>
       </c>
       <c r="I7">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="J7">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.027697</v>
+        <v>32.30926933333333</v>
       </c>
       <c r="N7">
-        <v>138.083091</v>
+        <v>96.927808</v>
       </c>
       <c r="O7">
-        <v>0.5508655786307046</v>
+        <v>0.4126751607889972</v>
       </c>
       <c r="P7">
-        <v>0.5524593235722315</v>
+        <v>0.4140835826598944</v>
       </c>
       <c r="Q7">
-        <v>220.087554889201</v>
+        <v>154.4910684501547</v>
       </c>
       <c r="R7">
-        <v>1980.787994002809</v>
+        <v>1390.419616051392</v>
       </c>
       <c r="S7">
-        <v>0.007605464786329758</v>
+        <v>0.006293954344619986</v>
       </c>
       <c r="T7">
-        <v>0.007650667364084214</v>
+        <v>0.006340271947120055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.344899</v>
       </c>
       <c r="I8">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="J8">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.838519</v>
       </c>
       <c r="O8">
-        <v>0.03127081146049064</v>
+        <v>0.03337290046497914</v>
       </c>
       <c r="P8">
-        <v>0.03136128307374061</v>
+        <v>0.03348679906459509</v>
       </c>
       <c r="Q8">
         <v>12.49364037384233</v>
@@ -948,10 +948,10 @@
         <v>112.442763364581</v>
       </c>
       <c r="S8">
-        <v>0.000431737005593804</v>
+        <v>0.0005089899558590689</v>
       </c>
       <c r="T8">
-        <v>0.0004343030059781471</v>
+        <v>0.0005127356446837996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.344899</v>
       </c>
       <c r="I9">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="J9">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.68554033333333</v>
+        <v>12.89411533333333</v>
       </c>
       <c r="N9">
-        <v>47.05662099999999</v>
+        <v>38.682346</v>
       </c>
       <c r="O9">
-        <v>0.1877266258152547</v>
+        <v>0.1646920907903501</v>
       </c>
       <c r="P9">
-        <v>0.1882697498946838</v>
+        <v>0.1652541695502867</v>
       </c>
       <c r="Q9">
-        <v>75.00249728069765</v>
+        <v>61.65492738367266</v>
       </c>
       <c r="R9">
-        <v>675.022475526279</v>
+        <v>554.8943464530539</v>
       </c>
       <c r="S9">
-        <v>0.002591826931069825</v>
+        <v>0.002511817038788224</v>
       </c>
       <c r="T9">
-        <v>0.002607231283291449</v>
+        <v>0.002530301657008396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.344899</v>
       </c>
       <c r="I10">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="J10">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.723125</v>
+        <v>0.798886</v>
       </c>
       <c r="N10">
-        <v>1.44625</v>
+        <v>1.597772</v>
       </c>
       <c r="O10">
-        <v>0.008654455849644799</v>
+        <v>0.01020389551681842</v>
       </c>
       <c r="P10">
-        <v>0.005786329744866009</v>
+        <v>0.006825813640948785</v>
       </c>
       <c r="Q10">
-        <v>3.457718363125</v>
+        <v>3.819979660838</v>
       </c>
       <c r="R10">
-        <v>20.74631017875</v>
+        <v>22.919877965028</v>
       </c>
       <c r="S10">
-        <v>0.0001194867890873338</v>
+        <v>0.0001556256800078286</v>
       </c>
       <c r="T10">
-        <v>8.013130061889182E-05</v>
+        <v>0.000104513959394335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>14.344899</v>
       </c>
       <c r="I11">
-        <v>0.01380638958279946</v>
+        <v>0.01525159481997056</v>
       </c>
       <c r="J11">
-        <v>0.0138483812973136</v>
+        <v>0.01531157527761154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.50602233333333</v>
+        <v>29.67714566666667</v>
       </c>
       <c r="N11">
-        <v>55.518067</v>
+        <v>89.03143700000001</v>
       </c>
       <c r="O11">
-        <v>0.2214825282439052</v>
+        <v>0.3790559524388551</v>
       </c>
       <c r="P11">
-        <v>0.2221233137144781</v>
+        <v>0.3803496350842752</v>
       </c>
       <c r="Q11">
-        <v>88.48900708780367</v>
+        <v>141.9052190655404</v>
       </c>
       <c r="R11">
-        <v>796.4010637902331</v>
+        <v>1277.146971589863</v>
       </c>
       <c r="S11">
-        <v>0.003057874070718741</v>
+        <v>0.005781207800695448</v>
       </c>
       <c r="T11">
-        <v>0.0030760483433409</v>
+        <v>0.00582375206940496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="H12">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="I12">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="J12">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.027697</v>
+        <v>32.30926933333333</v>
       </c>
       <c r="N12">
-        <v>138.083091</v>
+        <v>96.927808</v>
       </c>
       <c r="O12">
-        <v>0.5508655786307046</v>
+        <v>0.4126751607889972</v>
       </c>
       <c r="P12">
-        <v>0.5524593235722315</v>
+        <v>0.4140835826598944</v>
       </c>
       <c r="Q12">
-        <v>234.4821494510213</v>
+        <v>255.4439544539449</v>
       </c>
       <c r="R12">
-        <v>2110.339345059192</v>
+        <v>2298.995590085504</v>
       </c>
       <c r="S12">
-        <v>0.008102892194746979</v>
+        <v>0.01040676722008072</v>
       </c>
       <c r="T12">
-        <v>0.008151051199457299</v>
+        <v>0.01048335126899783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="H13">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="I13">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="J13">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.838519</v>
       </c>
       <c r="O13">
-        <v>0.03127081146049064</v>
+        <v>0.03337290046497914</v>
       </c>
       <c r="P13">
-        <v>0.03136128307374061</v>
+        <v>0.03348679906459509</v>
       </c>
       <c r="Q13">
-        <v>13.31077375456978</v>
+        <v>20.65766606856911</v>
       </c>
       <c r="R13">
-        <v>119.796963791128</v>
+        <v>185.918994617122</v>
       </c>
       <c r="S13">
-        <v>0.0004599743094067607</v>
+        <v>0.0008415917399388613</v>
       </c>
       <c r="T13">
-        <v>0.000462708136341754</v>
+        <v>0.0008477850660329964</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="H14">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="I14">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="J14">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.68554033333333</v>
+        <v>12.89411533333333</v>
       </c>
       <c r="N14">
-        <v>47.05662099999999</v>
+        <v>38.682346</v>
       </c>
       <c r="O14">
-        <v>0.1877266258152547</v>
+        <v>0.1646920907903501</v>
       </c>
       <c r="P14">
-        <v>0.1882697498946838</v>
+        <v>0.1652541695502867</v>
       </c>
       <c r="Q14">
-        <v>79.9079565649502</v>
+        <v>101.9436179738609</v>
       </c>
       <c r="R14">
-        <v>719.1716090845518</v>
+        <v>917.4925617647478</v>
       </c>
       <c r="S14">
-        <v>0.002761342639788291</v>
+        <v>0.004153175220351836</v>
       </c>
       <c r="T14">
-        <v>0.002777754497431242</v>
+        <v>0.004183738695781846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="H15">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="I15">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="J15">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.723125</v>
+        <v>0.798886</v>
       </c>
       <c r="N15">
-        <v>1.44625</v>
+        <v>1.597772</v>
       </c>
       <c r="O15">
-        <v>0.008654455849644799</v>
+        <v>0.01020389551681842</v>
       </c>
       <c r="P15">
-        <v>0.005786329744866009</v>
+        <v>0.006825813640948785</v>
       </c>
       <c r="Q15">
-        <v>3.683866788333333</v>
+        <v>6.316162612422666</v>
       </c>
       <c r="R15">
-        <v>22.10320073</v>
+        <v>37.89697567453599</v>
       </c>
       <c r="S15">
-        <v>0.0001273016965920848</v>
+        <v>0.0002573199830552674</v>
       </c>
       <c r="T15">
-        <v>8.537220387987346E-05</v>
+        <v>0.000172809077904343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.094370666666666</v>
+        <v>7.906212666666666</v>
       </c>
       <c r="H16">
-        <v>15.283112</v>
+        <v>23.718638</v>
       </c>
       <c r="I16">
-        <v>0.0147093819419403</v>
+        <v>0.02521781829607561</v>
       </c>
       <c r="J16">
-        <v>0.01475412008028422</v>
+        <v>0.02531699325449539</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.50602233333333</v>
+        <v>29.67714566666667</v>
       </c>
       <c r="N16">
-        <v>55.518067</v>
+        <v>89.03143700000001</v>
       </c>
       <c r="O16">
-        <v>0.2214825282439052</v>
+        <v>0.3790559524388551</v>
       </c>
       <c r="P16">
-        <v>0.2221233137144781</v>
+        <v>0.3803496350842752</v>
       </c>
       <c r="Q16">
-        <v>94.27653733161155</v>
+        <v>234.6338249803118</v>
       </c>
       <c r="R16">
-        <v>848.488835984504</v>
+        <v>2111.704424822806</v>
       </c>
       <c r="S16">
-        <v>0.003257871101406181</v>
+        <v>0.009558964132648926</v>
       </c>
       <c r="T16">
-        <v>0.003277234043174053</v>
+        <v>0.009629309145778378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="H17">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="I17">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="J17">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.027697</v>
+        <v>32.30926933333333</v>
       </c>
       <c r="N17">
-        <v>138.083091</v>
+        <v>96.927808</v>
       </c>
       <c r="O17">
-        <v>0.5508655786307046</v>
+        <v>0.4126751607889972</v>
       </c>
       <c r="P17">
-        <v>0.5524593235722315</v>
+        <v>0.4140835826598944</v>
       </c>
       <c r="Q17">
-        <v>145.011087897046</v>
+        <v>119.041742003488</v>
       </c>
       <c r="R17">
-        <v>870.0665273822759</v>
+        <v>714.250452020928</v>
       </c>
       <c r="S17">
-        <v>0.00501108171783532</v>
+        <v>0.004849751489133641</v>
       </c>
       <c r="T17">
-        <v>0.003360576500756104</v>
+        <v>0.003256960741841783</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="H18">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="I18">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="J18">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.838519</v>
       </c>
       <c r="O18">
-        <v>0.03127081146049064</v>
+        <v>0.03337290046497914</v>
       </c>
       <c r="P18">
-        <v>0.03136128307374061</v>
+        <v>0.03348679906459509</v>
       </c>
       <c r="Q18">
-        <v>8.231798400947332</v>
+        <v>9.6268653520715</v>
       </c>
       <c r="R18">
-        <v>49.390790405684</v>
+        <v>57.761192112429</v>
       </c>
       <c r="S18">
-        <v>0.0002844624853871847</v>
+        <v>0.0003921977601397148</v>
       </c>
       <c r="T18">
-        <v>0.0001907687795903282</v>
+        <v>0.0002633893119421509</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="H19">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="I19">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="J19">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.68554033333333</v>
+        <v>12.89411533333333</v>
       </c>
       <c r="N19">
-        <v>47.05662099999999</v>
+        <v>38.682346</v>
       </c>
       <c r="O19">
-        <v>0.1877266258152547</v>
+        <v>0.1646920907903501</v>
       </c>
       <c r="P19">
-        <v>0.1882697498946838</v>
+        <v>0.1652541695502867</v>
       </c>
       <c r="Q19">
-        <v>49.41757715989266</v>
+        <v>47.507665216381</v>
       </c>
       <c r="R19">
-        <v>296.505462959356</v>
+        <v>285.045991298286</v>
       </c>
       <c r="S19">
-        <v>0.001707700569914136</v>
+        <v>0.001935458657196526</v>
       </c>
       <c r="T19">
-        <v>0.001145233450325835</v>
+        <v>0.001299801212097363</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="H20">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="I20">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="J20">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.723125</v>
+        <v>0.798886</v>
       </c>
       <c r="N20">
-        <v>1.44625</v>
+        <v>1.597772</v>
       </c>
       <c r="O20">
-        <v>0.008654455849644799</v>
+        <v>0.01020389551681842</v>
       </c>
       <c r="P20">
-        <v>0.005786329744866009</v>
+        <v>0.006825813640948785</v>
       </c>
       <c r="Q20">
-        <v>2.27821832875</v>
+        <v>2.943451927713</v>
       </c>
       <c r="R20">
-        <v>9.112873315</v>
+        <v>11.773807710852</v>
       </c>
       <c r="S20">
-        <v>7.872734686703239E-05</v>
+        <v>0.0001199160070187913</v>
       </c>
       <c r="T20">
-        <v>3.519789229094326E-05</v>
+        <v>5.368821172984774E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.150518</v>
+        <v>3.6844455</v>
       </c>
       <c r="H21">
-        <v>6.301036</v>
+        <v>7.368891000000001</v>
       </c>
       <c r="I21">
-        <v>0.00909674140521077</v>
+        <v>0.01175198303639443</v>
       </c>
       <c r="J21">
-        <v>0.006082939245239698</v>
+        <v>0.007865466969060864</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.50602233333333</v>
+        <v>29.67714566666667</v>
       </c>
       <c r="N21">
-        <v>55.518067</v>
+        <v>89.03143700000001</v>
       </c>
       <c r="O21">
-        <v>0.2214825282439052</v>
+        <v>0.3790559524388551</v>
       </c>
       <c r="P21">
-        <v>0.2221233137144781</v>
+        <v>0.3803496350842752</v>
       </c>
       <c r="Q21">
-        <v>58.30355646956867</v>
+        <v>109.3438258043945</v>
       </c>
       <c r="R21">
-        <v>349.821338817412</v>
+        <v>656.0629548263671</v>
       </c>
       <c r="S21">
-        <v>0.002014769285207096</v>
+        <v>0.004454659122905761</v>
       </c>
       <c r="T21">
-        <v>0.001351162622276488</v>
+        <v>0.00299162749144972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="H22">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="I22">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="J22">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.027697</v>
+        <v>32.30926933333333</v>
       </c>
       <c r="N22">
-        <v>138.083091</v>
+        <v>96.927808</v>
       </c>
       <c r="O22">
-        <v>0.5508655786307046</v>
+        <v>0.4126751607889972</v>
       </c>
       <c r="P22">
-        <v>0.5524593235722315</v>
+        <v>0.4140835826598944</v>
       </c>
       <c r="Q22">
-        <v>221.0240497549286</v>
+        <v>109.4289427997226</v>
       </c>
       <c r="R22">
-        <v>1989.216447794358</v>
+        <v>984.860485197504</v>
       </c>
       <c r="S22">
-        <v>0.00763782681028634</v>
+        <v>0.004458126782803002</v>
       </c>
       <c r="T22">
-        <v>0.007683221729593258</v>
+        <v>0.00449093441579724</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="H23">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="I23">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="J23">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.838519</v>
       </c>
       <c r="O23">
-        <v>0.03127081146049064</v>
+        <v>0.03337290046497914</v>
       </c>
       <c r="P23">
-        <v>0.03136128307374061</v>
+        <v>0.03348679906459509</v>
       </c>
       <c r="Q23">
-        <v>12.54680208064689</v>
+        <v>8.849481536666332</v>
       </c>
       <c r="R23">
-        <v>112.921218725822</v>
+        <v>79.64533382999699</v>
       </c>
       <c r="S23">
-        <v>0.0004335740903362228</v>
+        <v>0.0003605272027962316</v>
       </c>
       <c r="T23">
-        <v>0.0004361510093124263</v>
+        <v>0.0003631803449633418</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="H24">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="I24">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="J24">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.68554033333333</v>
+        <v>12.89411533333333</v>
       </c>
       <c r="N24">
-        <v>47.05662099999999</v>
+        <v>38.682346</v>
       </c>
       <c r="O24">
-        <v>0.1877266258152547</v>
+        <v>0.1646920907903501</v>
       </c>
       <c r="P24">
-        <v>0.1882697498946838</v>
+        <v>0.1652541695502867</v>
       </c>
       <c r="Q24">
-        <v>75.32164051283308</v>
+        <v>43.67134999888866</v>
       </c>
       <c r="R24">
-        <v>677.8947646154978</v>
+        <v>393.0421499899979</v>
       </c>
       <c r="S24">
-        <v>0.002602855417505705</v>
+        <v>0.001779167467856619</v>
       </c>
       <c r="T24">
-        <v>0.002618325316808228</v>
+        <v>0.001792260472197789</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="H25">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="I25">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="J25">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.723125</v>
+        <v>0.798886</v>
       </c>
       <c r="N25">
-        <v>1.44625</v>
+        <v>1.597772</v>
       </c>
       <c r="O25">
-        <v>0.008654455849644799</v>
+        <v>0.01020389551681842</v>
       </c>
       <c r="P25">
-        <v>0.005786329744866009</v>
+        <v>0.006825813640948785</v>
       </c>
       <c r="Q25">
-        <v>3.472431305416666</v>
+        <v>2.705763770006</v>
       </c>
       <c r="R25">
-        <v>20.8345878325</v>
+        <v>16.234582620036</v>
       </c>
       <c r="S25">
-        <v>0.0001199952174923788</v>
+        <v>0.0001102326096038309</v>
       </c>
       <c r="T25">
-        <v>8.047226742935709E-05</v>
+        <v>7.402921216785576E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.801979333333333</v>
+        <v>3.386921</v>
       </c>
       <c r="H26">
-        <v>14.405938</v>
+        <v>10.160763</v>
       </c>
       <c r="I26">
-        <v>0.01386513717061757</v>
+        <v>0.01080299278076119</v>
       </c>
       <c r="J26">
-        <v>0.01390730756413547</v>
+        <v>0.01084547807220323</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.50602233333333</v>
+        <v>29.67714566666667</v>
       </c>
       <c r="N26">
-        <v>55.518067</v>
+        <v>89.03143700000001</v>
       </c>
       <c r="O26">
-        <v>0.2214825282439052</v>
+        <v>0.3790559524388551</v>
       </c>
       <c r="P26">
-        <v>0.2221233137144781</v>
+        <v>0.3803496350842752</v>
       </c>
       <c r="Q26">
-        <v>88.86553678687177</v>
+        <v>100.5141478784923</v>
       </c>
       <c r="R26">
-        <v>799.7898310818459</v>
+        <v>904.6273309064311</v>
       </c>
       <c r="S26">
-        <v>0.003070885634996927</v>
+        <v>0.00409493871770151</v>
       </c>
       <c r="T26">
-        <v>0.003089137240992197</v>
+        <v>0.004125073627077008</v>
       </c>
     </row>
   </sheetData>
